--- a/data/pca/factorExposure/factorExposure_2010-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-19.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003673359160326926</v>
+        <v>0.01711481308355879</v>
       </c>
       <c r="C2">
-        <v>0.01727221064681542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001201503450778103</v>
+      </c>
+      <c r="D2">
+        <v>0.005640706669278019</v>
+      </c>
+      <c r="E2">
+        <v>0.0005455419114375928</v>
+      </c>
+      <c r="F2">
+        <v>-0.01091909669219411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02630929794543586</v>
+        <v>0.09456708443646428</v>
       </c>
       <c r="C4">
-        <v>0.125749226428025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.015889100828655</v>
+      </c>
+      <c r="D4">
+        <v>0.0822209973607442</v>
+      </c>
+      <c r="E4">
+        <v>-0.02883825362612077</v>
+      </c>
+      <c r="F4">
+        <v>0.03052148310513822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03472882391970537</v>
+        <v>0.1571541803111246</v>
       </c>
       <c r="C6">
-        <v>0.1098546216102613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02537496898757535</v>
+      </c>
+      <c r="D6">
+        <v>-0.02360353589285316</v>
+      </c>
+      <c r="E6">
+        <v>-0.009334812609209696</v>
+      </c>
+      <c r="F6">
+        <v>0.04734625656728669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008022091703050462</v>
+        <v>0.06054531390346332</v>
       </c>
       <c r="C7">
-        <v>0.0722272182095388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0009388471170595831</v>
+      </c>
+      <c r="D7">
+        <v>0.05241614786486083</v>
+      </c>
+      <c r="E7">
+        <v>-0.01086608047913664</v>
+      </c>
+      <c r="F7">
+        <v>0.04368940549241307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003355790014050283</v>
+        <v>0.05835803594930522</v>
       </c>
       <c r="C8">
-        <v>0.06181067649861851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0132751911066154</v>
+      </c>
+      <c r="D8">
+        <v>0.03186802010855418</v>
+      </c>
+      <c r="E8">
+        <v>-0.01710743091827828</v>
+      </c>
+      <c r="F8">
+        <v>-0.02782089978237122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02255541837045039</v>
+        <v>0.0722405336743014</v>
       </c>
       <c r="C9">
-        <v>0.1009909114219702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0116762233829704</v>
+      </c>
+      <c r="D9">
+        <v>0.08416769954174788</v>
+      </c>
+      <c r="E9">
+        <v>-0.02354564796173767</v>
+      </c>
+      <c r="F9">
+        <v>0.04668032619490722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.008008529084634071</v>
+        <v>0.0927289498710636</v>
       </c>
       <c r="C10">
-        <v>0.020436124513901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01923227493757163</v>
+      </c>
+      <c r="D10">
+        <v>-0.1707429010199842</v>
+      </c>
+      <c r="E10">
+        <v>0.03773656424792877</v>
+      </c>
+      <c r="F10">
+        <v>-0.05564613066561889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02619316527492462</v>
+        <v>0.08804251394228706</v>
       </c>
       <c r="C11">
-        <v>0.1102783862062322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01132448666646653</v>
+      </c>
+      <c r="D11">
+        <v>0.1157645783792679</v>
+      </c>
+      <c r="E11">
+        <v>-0.04716944232397011</v>
+      </c>
+      <c r="F11">
+        <v>0.01964901617650443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02318788816630353</v>
+        <v>0.09295836895531595</v>
       </c>
       <c r="C12">
-        <v>0.1188830785200409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008472682317586893</v>
+      </c>
+      <c r="D12">
+        <v>0.1293450464779851</v>
+      </c>
+      <c r="E12">
+        <v>-0.04725542752281286</v>
+      </c>
+      <c r="F12">
+        <v>0.02429708253230831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.007161852404648831</v>
+        <v>0.0431385959727348</v>
       </c>
       <c r="C13">
-        <v>0.03770168201851827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003745436232782683</v>
+      </c>
+      <c r="D13">
+        <v>0.04955056846155759</v>
+      </c>
+      <c r="E13">
+        <v>0.0101937360545049</v>
+      </c>
+      <c r="F13">
+        <v>0.002172294351484751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01535308713584914</v>
+        <v>0.02276612489688601</v>
       </c>
       <c r="C14">
-        <v>0.02531023061058331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01404822241945936</v>
+      </c>
+      <c r="D14">
+        <v>0.03357214350256044</v>
+      </c>
+      <c r="E14">
+        <v>-0.01744859829103942</v>
+      </c>
+      <c r="F14">
+        <v>0.01417068936828626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01008257090392341</v>
+        <v>0.03150023788865019</v>
       </c>
       <c r="C15">
-        <v>0.02871779619566251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005130799902281133</v>
+      </c>
+      <c r="D15">
+        <v>0.04490235596783512</v>
+      </c>
+      <c r="E15">
+        <v>-0.006716386268779706</v>
+      </c>
+      <c r="F15">
+        <v>0.02170917177449019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0154019270677552</v>
+        <v>0.07336431981250535</v>
       </c>
       <c r="C16">
-        <v>0.1139733716174465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002230381580326057</v>
+      </c>
+      <c r="D16">
+        <v>0.1257725659297255</v>
+      </c>
+      <c r="E16">
+        <v>-0.06208544106807537</v>
+      </c>
+      <c r="F16">
+        <v>0.02243187712894036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02783941649538417</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003658215377004471</v>
+      </c>
+      <c r="D18">
+        <v>0.02196996938509536</v>
+      </c>
+      <c r="E18">
+        <v>0.005882746314340994</v>
+      </c>
+      <c r="F18">
+        <v>-0.006972528760829828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01009597190680063</v>
+        <v>0.06077665103230884</v>
       </c>
       <c r="C20">
-        <v>0.06994658280985516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006400725410648655</v>
+      </c>
+      <c r="D20">
+        <v>0.07668390990762247</v>
+      </c>
+      <c r="E20">
+        <v>-0.05614487939213608</v>
+      </c>
+      <c r="F20">
+        <v>0.02167000095706373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01132488858299705</v>
+        <v>0.0393935728803396</v>
       </c>
       <c r="C21">
-        <v>0.01883011316104896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006449792224499215</v>
+      </c>
+      <c r="D21">
+        <v>0.0370584887935072</v>
+      </c>
+      <c r="E21">
+        <v>0.005690566069399762</v>
+      </c>
+      <c r="F21">
+        <v>-0.0262813949150511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.00365960310465702</v>
+        <v>0.04427921132032166</v>
       </c>
       <c r="C22">
-        <v>0.02762944149403732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0009660412076211973</v>
+      </c>
+      <c r="D22">
+        <v>0.001741741861976831</v>
+      </c>
+      <c r="E22">
+        <v>-0.02800454402011558</v>
+      </c>
+      <c r="F22">
+        <v>-0.03281057582598445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003648964895918766</v>
+        <v>0.04426421903365815</v>
       </c>
       <c r="C23">
-        <v>0.0275596075754345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0009617094084553657</v>
+      </c>
+      <c r="D23">
+        <v>0.001747019444359343</v>
+      </c>
+      <c r="E23">
+        <v>-0.02820664788366863</v>
+      </c>
+      <c r="F23">
+        <v>-0.03277613860712892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01548809349295063</v>
+        <v>0.08006114136051219</v>
       </c>
       <c r="C24">
-        <v>0.1152670323734091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002954337193207672</v>
+      </c>
+      <c r="D24">
+        <v>0.1195632257393883</v>
+      </c>
+      <c r="E24">
+        <v>-0.05033732974364341</v>
+      </c>
+      <c r="F24">
+        <v>0.02353167259987939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02084368976360807</v>
+        <v>0.08512783900905932</v>
       </c>
       <c r="C25">
-        <v>0.1201402815658619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005151539371937654</v>
+      </c>
+      <c r="D25">
+        <v>0.108544785114039</v>
+      </c>
+      <c r="E25">
+        <v>-0.03331147762830453</v>
+      </c>
+      <c r="F25">
+        <v>0.02494996112950334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02161119104095091</v>
+        <v>0.05723339110682029</v>
       </c>
       <c r="C26">
-        <v>0.05013889693354601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01461483613702405</v>
+      </c>
+      <c r="D26">
+        <v>0.04119192107943085</v>
+      </c>
+      <c r="E26">
+        <v>-0.02804723812540836</v>
+      </c>
+      <c r="F26">
+        <v>-0.01138438475334033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.001700688491923048</v>
+        <v>0.1403489786527314</v>
       </c>
       <c r="C28">
-        <v>0.01620371123176255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0187334961084056</v>
+      </c>
+      <c r="D28">
+        <v>-0.2645188973978224</v>
+      </c>
+      <c r="E28">
+        <v>0.06856756319057912</v>
+      </c>
+      <c r="F28">
+        <v>0.008519655690201303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01212971553681715</v>
+        <v>0.02722105475152909</v>
       </c>
       <c r="C29">
-        <v>0.03173637050168949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008237157127463327</v>
+      </c>
+      <c r="D29">
+        <v>0.03274245736484318</v>
+      </c>
+      <c r="E29">
+        <v>-0.01137896410470608</v>
+      </c>
+      <c r="F29">
+        <v>-0.01062988919229268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01381620787636093</v>
+        <v>0.06257879280928597</v>
       </c>
       <c r="C30">
-        <v>0.1286596338934745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004356629481905114</v>
+      </c>
+      <c r="D30">
+        <v>0.087036334034127</v>
+      </c>
+      <c r="E30">
+        <v>-0.02122011316536494</v>
+      </c>
+      <c r="F30">
+        <v>0.08160331601228711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02143781641648157</v>
+        <v>0.04950540931780007</v>
       </c>
       <c r="C31">
-        <v>0.03714194061592613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01529429604033258</v>
+      </c>
+      <c r="D31">
+        <v>0.02487964970837481</v>
+      </c>
+      <c r="E31">
+        <v>-0.0273779042433608</v>
+      </c>
+      <c r="F31">
+        <v>-0.002744251369708344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006092199982009452</v>
+        <v>0.04922361573570689</v>
       </c>
       <c r="C32">
-        <v>0.06067938153085989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001176742343568558</v>
+      </c>
+      <c r="D32">
+        <v>0.03635722373584681</v>
+      </c>
+      <c r="E32">
+        <v>-0.03122275393950691</v>
+      </c>
+      <c r="F32">
+        <v>-5.342838363800331e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02082905467132152</v>
+        <v>0.09037224690585934</v>
       </c>
       <c r="C33">
-        <v>0.1197273736795365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008362562688586449</v>
+      </c>
+      <c r="D33">
+        <v>0.09838247189219046</v>
+      </c>
+      <c r="E33">
+        <v>-0.04542625837446727</v>
+      </c>
+      <c r="F33">
+        <v>0.03455776104546567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02337204617492384</v>
+        <v>0.06820738075448404</v>
       </c>
       <c r="C34">
-        <v>0.1019649579615876</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01153080355067941</v>
+      </c>
+      <c r="D34">
+        <v>0.1056644675280114</v>
+      </c>
+      <c r="E34">
+        <v>-0.03508278178781008</v>
+      </c>
+      <c r="F34">
+        <v>0.03223396469273958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002805095746632937</v>
+        <v>0.02363502667749785</v>
       </c>
       <c r="C35">
-        <v>0.01237363285322716</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002406885775617053</v>
+      </c>
+      <c r="D35">
+        <v>0.0121641509597465</v>
+      </c>
+      <c r="E35">
+        <v>-0.01155930101866456</v>
+      </c>
+      <c r="F35">
+        <v>0.001273788297086672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009852585061730746</v>
+        <v>0.02593563813010571</v>
       </c>
       <c r="C36">
-        <v>0.0302215675510199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007056080874430886</v>
+      </c>
+      <c r="D36">
+        <v>0.04030386405633404</v>
+      </c>
+      <c r="E36">
+        <v>-0.01616075907980155</v>
+      </c>
+      <c r="F36">
+        <v>0.01493903401329193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-4.879673485260571e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-1.328879663023308e-05</v>
+      </c>
+      <c r="D37">
+        <v>-0.0001362146009542763</v>
+      </c>
+      <c r="E37">
+        <v>5.58328425878177e-07</v>
+      </c>
+      <c r="F37">
+        <v>0.000392206524912331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005537009854685493</v>
+        <v>0.001356420987124396</v>
       </c>
       <c r="C38">
-        <v>0.004607716370052892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002069944615219411</v>
+      </c>
+      <c r="D38">
+        <v>0.0006383832945637515</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009364677198809989</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005576878856786224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03685300191540367</v>
+        <v>0.1074570595580474</v>
       </c>
       <c r="C39">
-        <v>0.1762858661270516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01681386235328846</v>
+      </c>
+      <c r="D39">
+        <v>0.1522331133737113</v>
+      </c>
+      <c r="E39">
+        <v>-0.05950490270239861</v>
+      </c>
+      <c r="F39">
+        <v>0.02764945539698651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009258232600771923</v>
+        <v>0.03985400535017285</v>
       </c>
       <c r="C40">
-        <v>0.0104539627484746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007229558381914794</v>
+      </c>
+      <c r="D40">
+        <v>0.03273670687992492</v>
+      </c>
+      <c r="E40">
+        <v>-0.00326596291975395</v>
+      </c>
+      <c r="F40">
+        <v>-0.0170091718034061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01113315273096252</v>
+        <v>0.0264130939938045</v>
       </c>
       <c r="C41">
-        <v>0.02242174831844301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006576872414071364</v>
+      </c>
+      <c r="D41">
+        <v>0.01132387928968906</v>
+      </c>
+      <c r="E41">
+        <v>-0.01245936513845045</v>
+      </c>
+      <c r="F41">
+        <v>-0.007111857734222493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01156237179076286</v>
+        <v>0.0398626680870897</v>
       </c>
       <c r="C43">
-        <v>0.02486468115814641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006798997183146187</v>
+      </c>
+      <c r="D43">
+        <v>0.02097486004609095</v>
+      </c>
+      <c r="E43">
+        <v>-0.02512420521041705</v>
+      </c>
+      <c r="F43">
+        <v>-0.01280935078324503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02949754939454719</v>
+        <v>0.07804197784631169</v>
       </c>
       <c r="C44">
-        <v>0.1365103113703876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02080693318707876</v>
+      </c>
+      <c r="D44">
+        <v>0.0984995090363015</v>
+      </c>
+      <c r="E44">
+        <v>-0.06747291109291546</v>
+      </c>
+      <c r="F44">
+        <v>0.1517595306722699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005821446401776773</v>
+        <v>0.02431092889196286</v>
       </c>
       <c r="C46">
-        <v>0.008699931448499768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003731248538900454</v>
+      </c>
+      <c r="D46">
+        <v>0.01271343491012496</v>
+      </c>
+      <c r="E46">
+        <v>-0.02212806477498627</v>
+      </c>
+      <c r="F46">
+        <v>-0.003437832766841521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01167189558817227</v>
+        <v>0.05066030705807695</v>
       </c>
       <c r="C47">
-        <v>0.04237622323043578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003657217234709621</v>
+      </c>
+      <c r="D47">
+        <v>0.01222343362630498</v>
+      </c>
+      <c r="E47">
+        <v>-0.02264670480177702</v>
+      </c>
+      <c r="F47">
+        <v>-0.0333138336348721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01116181122948797</v>
+        <v>0.04865191064201721</v>
       </c>
       <c r="C48">
-        <v>0.04790145135114358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002512587357369971</v>
+      </c>
+      <c r="D48">
+        <v>0.05064855177080574</v>
+      </c>
+      <c r="E48">
+        <v>0.006368448769159424</v>
+      </c>
+      <c r="F48">
+        <v>0.008810885814202404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03167927945141588</v>
+        <v>0.2007516779967155</v>
       </c>
       <c r="C49">
-        <v>0.200855419616281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01877213959573991</v>
+      </c>
+      <c r="D49">
+        <v>-0.01118108045145657</v>
+      </c>
+      <c r="E49">
+        <v>-0.03024163682991063</v>
+      </c>
+      <c r="F49">
+        <v>0.03924091311504933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01775346914344852</v>
+        <v>0.04969603276912176</v>
       </c>
       <c r="C50">
-        <v>0.043572726567952</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01130298986994123</v>
+      </c>
+      <c r="D50">
+        <v>0.0242124153302061</v>
+      </c>
+      <c r="E50">
+        <v>-0.02975607180848831</v>
+      </c>
+      <c r="F50">
+        <v>0.008011668191242044</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004648600472831587</v>
+        <v>0.001120002627079752</v>
       </c>
       <c r="C51">
-        <v>0.003319989391385953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003203562867413137</v>
+      </c>
+      <c r="D51">
+        <v>-0.0008989443679829879</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001980237993107442</v>
+      </c>
+      <c r="F51">
+        <v>0.003250276817783414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02650232868395768</v>
+        <v>0.1466882514648643</v>
       </c>
       <c r="C52">
-        <v>0.1489870071318435</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01545592431850012</v>
+      </c>
+      <c r="D52">
+        <v>0.0449119609831549</v>
+      </c>
+      <c r="E52">
+        <v>-0.02029493523848542</v>
+      </c>
+      <c r="F52">
+        <v>0.04293243316531978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02429967247512997</v>
+        <v>0.1740991847880413</v>
       </c>
       <c r="C53">
-        <v>0.1600970584344509</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01863258570583801</v>
+      </c>
+      <c r="D53">
+        <v>0.004531161806937076</v>
+      </c>
+      <c r="E53">
+        <v>-0.0314439281377126</v>
+      </c>
+      <c r="F53">
+        <v>0.07561482450427921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01430932180904234</v>
+        <v>0.02148202768352582</v>
       </c>
       <c r="C54">
-        <v>0.04744476916325541</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01245886324427166</v>
+      </c>
+      <c r="D54">
+        <v>0.03289666286950482</v>
+      </c>
+      <c r="E54">
+        <v>-0.01691499747771372</v>
+      </c>
+      <c r="F54">
+        <v>-0.003984577856545367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02224364358935803</v>
+        <v>0.1143669971715838</v>
       </c>
       <c r="C55">
-        <v>0.08900902399145465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01653783269153932</v>
+      </c>
+      <c r="D55">
+        <v>0.008976607845262255</v>
+      </c>
+      <c r="E55">
+        <v>-0.02811932710363953</v>
+      </c>
+      <c r="F55">
+        <v>0.04858932276264005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02774338875322123</v>
+        <v>0.1786940889411365</v>
       </c>
       <c r="C56">
-        <v>0.1625446445382842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0160247360231168</v>
+      </c>
+      <c r="D56">
+        <v>0.0007670196897076991</v>
+      </c>
+      <c r="E56">
+        <v>-0.03664815831827194</v>
+      </c>
+      <c r="F56">
+        <v>0.0543741115236796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009601269128382864</v>
+        <v>0.04612202140512163</v>
       </c>
       <c r="C58">
-        <v>0.04540240563537565</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001099326981911603</v>
+      </c>
+      <c r="D58">
+        <v>0.06700085393065573</v>
+      </c>
+      <c r="E58">
+        <v>-0.02726455160225275</v>
+      </c>
+      <c r="F58">
+        <v>-0.03800834407432424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009093465073998148</v>
+        <v>0.1688123443475207</v>
       </c>
       <c r="C59">
-        <v>0.07211916522075162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0196584171970962</v>
+      </c>
+      <c r="D59">
+        <v>-0.2225851939009019</v>
+      </c>
+      <c r="E59">
+        <v>0.04591389747382419</v>
+      </c>
+      <c r="F59">
+        <v>-0.03360175923886218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01889666894124891</v>
+        <v>0.2342227302027974</v>
       </c>
       <c r="C60">
-        <v>0.2833910105144005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002517989412136177</v>
+      </c>
+      <c r="D60">
+        <v>0.03922337821453304</v>
+      </c>
+      <c r="E60">
+        <v>-0.01052947876750399</v>
+      </c>
+      <c r="F60">
+        <v>-0.003064365631716971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02701616717721272</v>
+        <v>0.08336712825424306</v>
       </c>
       <c r="C61">
-        <v>0.1340956069410278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01270381967133473</v>
+      </c>
+      <c r="D61">
+        <v>0.1154504178498657</v>
+      </c>
+      <c r="E61">
+        <v>-0.03930366765019993</v>
+      </c>
+      <c r="F61">
+        <v>0.01078051120656076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03166181686211954</v>
+        <v>0.1705263590399282</v>
       </c>
       <c r="C62">
-        <v>0.1681631131854529</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01950763659174958</v>
+      </c>
+      <c r="D62">
+        <v>0.006343078743500177</v>
+      </c>
+      <c r="E62">
+        <v>-0.03551007095458635</v>
+      </c>
+      <c r="F62">
+        <v>0.03670622768916772</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0104933676746882</v>
+        <v>0.0439373643386619</v>
       </c>
       <c r="C63">
-        <v>0.05671196471239469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002237019292042796</v>
+      </c>
+      <c r="D63">
+        <v>0.05862992206913927</v>
+      </c>
+      <c r="E63">
+        <v>-0.02054055572266499</v>
+      </c>
+      <c r="F63">
+        <v>0.004293291044964021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02107023790678116</v>
+        <v>0.1106972269538905</v>
       </c>
       <c r="C64">
-        <v>0.1019492705702437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01166529523614985</v>
+      </c>
+      <c r="D64">
+        <v>0.04194689002382276</v>
+      </c>
+      <c r="E64">
+        <v>-0.02322413463937502</v>
+      </c>
+      <c r="F64">
+        <v>0.02594561387728827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03662207088147013</v>
+        <v>0.1466722752332271</v>
       </c>
       <c r="C65">
-        <v>0.1097835171514618</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03222063375052355</v>
+      </c>
+      <c r="D65">
+        <v>-0.04225291947801276</v>
+      </c>
+      <c r="E65">
+        <v>-0.003301304205636452</v>
+      </c>
+      <c r="F65">
+        <v>0.03917831594850465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03427076388989306</v>
+        <v>0.1278657572000896</v>
       </c>
       <c r="C66">
-        <v>0.2071779727225727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01489519689925012</v>
+      </c>
+      <c r="D66">
+        <v>0.1404771020418884</v>
+      </c>
+      <c r="E66">
+        <v>-0.06741797325707929</v>
+      </c>
+      <c r="F66">
+        <v>0.03081951974322925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01392751653565216</v>
+        <v>0.06301109316427528</v>
       </c>
       <c r="C67">
-        <v>0.0655483037556029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003307038787429821</v>
+      </c>
+      <c r="D67">
+        <v>0.05422199939295931</v>
+      </c>
+      <c r="E67">
+        <v>-0.01732247524734288</v>
+      </c>
+      <c r="F67">
+        <v>-0.03303861810040296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01232377262973035</v>
+        <v>0.1153197193758232</v>
       </c>
       <c r="C68">
-        <v>0.01666133856016943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02874099123968542</v>
+      </c>
+      <c r="D68">
+        <v>-0.2600675248118223</v>
+      </c>
+      <c r="E68">
+        <v>0.08679989201727588</v>
+      </c>
+      <c r="F68">
+        <v>0.005324694834436814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005379805629217807</v>
+        <v>0.03954671729414984</v>
       </c>
       <c r="C69">
-        <v>0.03508406791571644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001238917659424416</v>
+      </c>
+      <c r="D69">
+        <v>0.007504949266635736</v>
+      </c>
+      <c r="E69">
+        <v>-0.0234030944481431</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008885489885756832</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002390943461757515</v>
+        <v>0.06321679416220831</v>
       </c>
       <c r="C70">
-        <v>0.0351034563710312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02816411925180645</v>
+      </c>
+      <c r="D70">
+        <v>0.02651335526582875</v>
+      </c>
+      <c r="E70">
+        <v>0.04307920834183229</v>
+      </c>
+      <c r="F70">
+        <v>-0.188264054113591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01674967283473297</v>
+        <v>0.1344632485176427</v>
       </c>
       <c r="C71">
-        <v>0.0191711757518453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03371927540020055</v>
+      </c>
+      <c r="D71">
+        <v>-0.2742576847037893</v>
+      </c>
+      <c r="E71">
+        <v>0.09650380397084402</v>
+      </c>
+      <c r="F71">
+        <v>0.01169328665773873</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03238242663308856</v>
+        <v>0.1409012256803379</v>
       </c>
       <c r="C72">
-        <v>0.117192492019667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02601125328706131</v>
+      </c>
+      <c r="D72">
+        <v>-0.0003592845608054347</v>
+      </c>
+      <c r="E72">
+        <v>-0.03987165699960608</v>
+      </c>
+      <c r="F72">
+        <v>0.03613753731549704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03002978849065998</v>
+        <v>0.2009989571464776</v>
       </c>
       <c r="C73">
-        <v>0.2070586303632521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01309458427297726</v>
+      </c>
+      <c r="D73">
+        <v>0.01421559217832193</v>
+      </c>
+      <c r="E73">
+        <v>-0.06443977720335033</v>
+      </c>
+      <c r="F73">
+        <v>0.03906427326773287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01747919504621301</v>
+        <v>0.09481734436021103</v>
       </c>
       <c r="C74">
-        <v>0.1156517573793515</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01310666029290729</v>
+      </c>
+      <c r="D74">
+        <v>0.01785307754912752</v>
+      </c>
+      <c r="E74">
+        <v>-0.04477743365293412</v>
+      </c>
+      <c r="F74">
+        <v>0.05740565008375027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03699483572352281</v>
+        <v>0.1290080331160023</v>
       </c>
       <c r="C75">
-        <v>0.1371683907278435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02764693783271264</v>
+      </c>
+      <c r="D75">
+        <v>0.02999058649043295</v>
+      </c>
+      <c r="E75">
+        <v>-0.05879985034729703</v>
+      </c>
+      <c r="F75">
+        <v>0.01952930078763131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003806733702948268</v>
+        <v>0.001211040440355467</v>
       </c>
       <c r="C76">
-        <v>0.004262691368021169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003305306547355914</v>
+      </c>
+      <c r="D76">
+        <v>-0.000994807669727334</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002589181414419283</v>
+      </c>
+      <c r="F76">
+        <v>0.001553715802156285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02083788304309856</v>
+        <v>0.08145274492546407</v>
       </c>
       <c r="C77">
-        <v>0.1091530906391579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008449900124964852</v>
+      </c>
+      <c r="D77">
+        <v>0.1175366195730862</v>
+      </c>
+      <c r="E77">
+        <v>-0.04041303727236246</v>
+      </c>
+      <c r="F77">
+        <v>0.02637589073094462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04707637416102799</v>
+        <v>0.1012581704774898</v>
       </c>
       <c r="C78">
-        <v>0.1239838848733457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03957197965932098</v>
+      </c>
+      <c r="D78">
+        <v>0.1159020492856838</v>
+      </c>
+      <c r="E78">
+        <v>-0.07783905631427425</v>
+      </c>
+      <c r="F78">
+        <v>0.04451282298701002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03132545811086377</v>
+        <v>0.1647306110074123</v>
       </c>
       <c r="C79">
-        <v>0.1466417962133241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02215463050816344</v>
+      </c>
+      <c r="D79">
+        <v>0.01538744389115214</v>
+      </c>
+      <c r="E79">
+        <v>-0.04702935015085927</v>
+      </c>
+      <c r="F79">
+        <v>0.01356451526576195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004117026367507031</v>
+        <v>0.08198743296684534</v>
       </c>
       <c r="C80">
-        <v>0.09501512731751141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0006498489703477149</v>
+      </c>
+      <c r="D80">
+        <v>0.0578170790969894</v>
+      </c>
+      <c r="E80">
+        <v>-0.03628061434365389</v>
+      </c>
+      <c r="F80">
+        <v>-0.02497261873142583</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03852947945731737</v>
+        <v>0.1228997755645421</v>
       </c>
       <c r="C81">
-        <v>0.1506451474882169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0314357937546463</v>
+      </c>
+      <c r="D81">
+        <v>0.01520856535485637</v>
+      </c>
+      <c r="E81">
+        <v>-0.05884710444608773</v>
+      </c>
+      <c r="F81">
+        <v>0.01829780030661772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03249605308864294</v>
+        <v>0.1658814077943646</v>
       </c>
       <c r="C82">
-        <v>0.1656542422647791</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02397782989513019</v>
+      </c>
+      <c r="D82">
+        <v>0.00456964383585886</v>
+      </c>
+      <c r="E82">
+        <v>-0.02904862248972457</v>
+      </c>
+      <c r="F82">
+        <v>0.08114687586438769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01619976387314386</v>
+        <v>0.06164822127320348</v>
       </c>
       <c r="C83">
-        <v>0.0766817089675184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.00332469219524339</v>
+      </c>
+      <c r="D83">
+        <v>0.04949196964983727</v>
+      </c>
+      <c r="E83">
+        <v>-0.005896477928799242</v>
+      </c>
+      <c r="F83">
+        <v>-0.03282714080922594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02451347047555538</v>
+        <v>0.05867240737306707</v>
       </c>
       <c r="C84">
-        <v>0.07659765387097185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01112023894455022</v>
+      </c>
+      <c r="D84">
+        <v>0.06467280522389621</v>
+      </c>
+      <c r="E84">
+        <v>-0.007181353429037408</v>
+      </c>
+      <c r="F84">
+        <v>0.004835621888818209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03360820019451274</v>
+        <v>0.1378826452743185</v>
       </c>
       <c r="C85">
-        <v>0.1218798998636911</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02753683710312294</v>
+      </c>
+      <c r="D85">
+        <v>0.01053062985014107</v>
+      </c>
+      <c r="E85">
+        <v>-0.03947997522365795</v>
+      </c>
+      <c r="F85">
+        <v>0.04710597784209056</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.004985823054957929</v>
+        <v>0.09630035514594207</v>
       </c>
       <c r="C86">
-        <v>0.1065988358359658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006458729146268592</v>
+      </c>
+      <c r="D86">
+        <v>0.03977405148017778</v>
+      </c>
+      <c r="E86">
+        <v>-0.2076328676407396</v>
+      </c>
+      <c r="F86">
+        <v>-0.9090802326746145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03706811962464771</v>
+        <v>0.09705719488794552</v>
       </c>
       <c r="C87">
-        <v>0.1116921276262683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02066691873427357</v>
+      </c>
+      <c r="D87">
+        <v>0.09564668113785714</v>
+      </c>
+      <c r="E87">
+        <v>0.05100299890653352</v>
+      </c>
+      <c r="F87">
+        <v>0.05186722510574464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01159919544301727</v>
+        <v>0.06101579870208469</v>
       </c>
       <c r="C88">
-        <v>0.05839679446781809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002507257399747319</v>
+      </c>
+      <c r="D88">
+        <v>0.05013070076656842</v>
+      </c>
+      <c r="E88">
+        <v>-0.02507744152184035</v>
+      </c>
+      <c r="F88">
+        <v>0.01316958709559716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0008664267672398232</v>
+        <v>0.1315260769065323</v>
       </c>
       <c r="C89">
-        <v>0.03763411650201086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01146769890409116</v>
+      </c>
+      <c r="D89">
+        <v>-0.2527930968175038</v>
+      </c>
+      <c r="E89">
+        <v>0.0914661485063156</v>
+      </c>
+      <c r="F89">
+        <v>-0.008022587604219963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01712649959739384</v>
+        <v>0.1468842484148233</v>
       </c>
       <c r="C90">
-        <v>0.02323983425264131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02936565351987507</v>
+      </c>
+      <c r="D90">
+        <v>-0.266558263255836</v>
+      </c>
+      <c r="E90">
+        <v>0.1108684368124622</v>
+      </c>
+      <c r="F90">
+        <v>-0.002438092586775431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01903354106729709</v>
+        <v>0.1197083448233749</v>
       </c>
       <c r="C91">
-        <v>0.09278371654237648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01834602960539364</v>
+      </c>
+      <c r="D91">
+        <v>-0.01252141794031126</v>
+      </c>
+      <c r="E91">
+        <v>-0.0569593282412111</v>
+      </c>
+      <c r="F91">
+        <v>-0.001650411695657459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0002268038869508381</v>
+        <v>0.1458361709629031</v>
       </c>
       <c r="C92">
-        <v>0.03509019515434649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02138311515569205</v>
+      </c>
+      <c r="D92">
+        <v>-0.2911830599167033</v>
+      </c>
+      <c r="E92">
+        <v>0.1012444445086379</v>
+      </c>
+      <c r="F92">
+        <v>-0.01320890458010681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01148461718490635</v>
+        <v>0.1498642275193587</v>
       </c>
       <c r="C93">
-        <v>0.02622707956946985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02555182665678237</v>
+      </c>
+      <c r="D93">
+        <v>-0.2676733277095013</v>
+      </c>
+      <c r="E93">
+        <v>0.07816567439412796</v>
+      </c>
+      <c r="F93">
+        <v>0.003614243831750538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03563673725646389</v>
+        <v>0.1317193834444089</v>
       </c>
       <c r="C94">
-        <v>0.1608682108037896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02460148187363149</v>
+      </c>
+      <c r="D94">
+        <v>0.04285625028004373</v>
+      </c>
+      <c r="E94">
+        <v>-0.05838025467610147</v>
+      </c>
+      <c r="F94">
+        <v>0.03719745652641814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02171177399599616</v>
+        <v>0.1252928525518106</v>
       </c>
       <c r="C95">
-        <v>0.1442634098571728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004588759313792169</v>
+      </c>
+      <c r="D95">
+        <v>0.0903736774168972</v>
+      </c>
+      <c r="E95">
+        <v>-0.0461891390232256</v>
+      </c>
+      <c r="F95">
+        <v>-0.01113548670747448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9812331165468369</v>
+        <v>0.1049139977547917</v>
       </c>
       <c r="C96">
-        <v>0.1710044650351304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879657780370538</v>
+      </c>
+      <c r="D96">
+        <v>-0.04072545928904227</v>
+      </c>
+      <c r="E96">
+        <v>-0.05638260697871147</v>
+      </c>
+      <c r="F96">
+        <v>0.04273804739781602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.0006393182699349664</v>
+        <v>0.1914793053217365</v>
       </c>
       <c r="C97">
-        <v>0.1746009554003215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008568583991391158</v>
+      </c>
+      <c r="D97">
+        <v>-0.01630893390240997</v>
+      </c>
+      <c r="E97">
+        <v>-0.01532923230677682</v>
+      </c>
+      <c r="F97">
+        <v>-0.09352430119003274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02114269619207776</v>
+        <v>0.2061819028297432</v>
       </c>
       <c r="C98">
-        <v>0.1949417677796501</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007807747992053676</v>
+      </c>
+      <c r="D98">
+        <v>0.007543659743323607</v>
+      </c>
+      <c r="E98">
+        <v>0.08635551361173274</v>
+      </c>
+      <c r="F98">
+        <v>-0.09463349227188649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003025882726480951</v>
+        <v>0.05605786474373749</v>
       </c>
       <c r="C99">
-        <v>0.05742784349174872</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004349600293572975</v>
+      </c>
+      <c r="D99">
+        <v>0.03887602255872186</v>
+      </c>
+      <c r="E99">
+        <v>-0.02388013808647645</v>
+      </c>
+      <c r="F99">
+        <v>0.0006009248121889844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005826667416583805</v>
+        <v>0.1277821251782706</v>
       </c>
       <c r="C100">
-        <v>0.1444060025265642</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05273695412853185</v>
+      </c>
+      <c r="D100">
+        <v>0.3468521817613035</v>
+      </c>
+      <c r="E100">
+        <v>0.8885546687182466</v>
+      </c>
+      <c r="F100">
+        <v>-0.1331191872275334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01215038869690666</v>
+        <v>0.02713887077642371</v>
       </c>
       <c r="C101">
-        <v>0.03169883034732553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008246045320563269</v>
+      </c>
+      <c r="D101">
+        <v>0.03244559391008657</v>
+      </c>
+      <c r="E101">
+        <v>-0.01080846762492496</v>
+      </c>
+      <c r="F101">
+        <v>-0.01187912636637239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
